--- a/03.crawler/05.Standard/file/1.part_number/crawler_2.xlsx
+++ b/03.crawler/05.Standard/file/1.part_number/crawler_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23520" windowHeight="14040"/>
+    <workbookView windowWidth="25900" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,61 +41,61 @@
     <t>DS-332</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-332&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS332&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-888</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-888&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS888&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-1103</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-1103&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS1103&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-1104</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-1104&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS1104&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-1126</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-1126&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS1126&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-2190</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-2190&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS2190&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-2250</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-2250&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS2250&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-2251</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-2251&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS2251&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-2425</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-2425&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS2425&amp;type=p&amp;search=s</t>
   </si>
   <si>
     <t>DS-3092</t>
   </si>
   <si>
-    <t>https://www.standardbrand.com/en/ecatalog?part=DS-3092&amp;type=p&amp;search=s</t>
+    <t>https://www.standardbrand.com/en/ecatalog?part=DS3092&amp;type=p&amp;search=s</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD216"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
